--- a/ResultadoEleicoesDistritos/LEIRIA_POMBAL.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_POMBAL.xlsx
@@ -597,64 +597,64 @@
         <v>14493</v>
       </c>
       <c r="H2" t="n">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="I2" t="n">
-        <v>1407</v>
+        <v>1492</v>
       </c>
       <c r="J2" t="n">
-        <v>6101</v>
+        <v>5904</v>
       </c>
       <c r="K2" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L2" t="n">
-        <v>1622</v>
+        <v>1655</v>
       </c>
       <c r="M2" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N2" t="n">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R2" t="n">
+        <v>69</v>
+      </c>
+      <c r="S2" t="n">
+        <v>652</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1105</v>
+      </c>
+      <c r="U2" t="n">
+        <v>64</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9314</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9147</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>122</v>
+      </c>
+      <c r="AA2" t="n">
         <v>62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>638</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1063</v>
-      </c>
-      <c r="U2" t="n">
-        <v>90</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9185</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9189</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>153</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
